--- a/import/Заказ_import.xlsx
+++ b/import/Заказ_import.xlsx
@@ -483,17 +483,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>А112Т4, 2, F635R4, 2</t>
+          <t>А112Т4, 2, G843H5, 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-02-27 00:00:00</t>
+          <t>2023-02-27 00:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-20 00:00:00</t>
+          <t>2023-04-20 00:00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Завершен</t>
+          <t>Новый</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H782T5, 1, G783F5, 1</t>
+          <t>G843H5, 1, А112Т4, 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-21 00:00:00</t>
+          <t>2023-04-21 00:00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Завершен</t>
+          <t>Новый</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J384T6, 10, D572U8, 10</t>
+          <t>D325D4, 10, S432T5, 10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-21 00:00:00</t>
+          <t>2023-03-21 00:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2023-04-22 00:00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Завершен</t>
+          <t>Новый</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F572H7, 5, D329H3, 4</t>
+          <t>F325D4, 5, D325D4, 4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-20 00:00:00</t>
+          <t>2023-02-20 00:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2023-04-23 00:00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -651,17 +651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>А112Т4, 2, F635R4, 2</t>
+          <t>G432G6, 20, H542F5, 20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-17 00:00:00</t>
+          <t>2023-03-17 00:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2023-04-24 00:00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H782T5, 1, G783F5, 1</t>
+          <t>А112Т4, 2, G843H5, 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-01 00:00:00</t>
+          <t>2023-03-01 00:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-04-25 00:00:00</t>
+          <t>2023-04-25 00:00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J384T6, 10, D572U8, 10</t>
+          <t>C346F5, 3, F256G6, 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30.02.2025</t>
+          <t>30.02.2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-04-26 00:00:00</t>
+          <t>2023-04-26 00:00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -777,17 +777,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>F572H7, 5, D329H3, 4</t>
+          <t>F325D4, 1, G432G6, 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-31 00:00:00</t>
+          <t>2023-03-31 00:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-04-27 00:00:00</t>
+          <t>2023-04-27 00:00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -819,17 +819,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B320R5, 5, G432E4, 1</t>
+          <t>J532V5, 5, F256G6, 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-02 00:00:00</t>
+          <t>2023-04-02 00:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2023-04-28 00:00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -861,17 +861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S213E3, 5, E482R4, 5</t>
+          <t>F256G6, 5, J532V5, 5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-03 00:00:00</t>
+          <t>2023-04-03 00:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-04-29 00:00:00</t>
+          <t>2023-04-29 00:00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
